--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.46517066666667</v>
+        <v>48.22964200000001</v>
       </c>
       <c r="H2">
-        <v>76.39551200000001</v>
+        <v>144.688926</v>
       </c>
       <c r="I2">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="J2">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.738355</v>
+        <v>22.078427</v>
       </c>
       <c r="N2">
-        <v>32.215065</v>
+        <v>66.235281</v>
       </c>
       <c r="O2">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="P2">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="Q2">
-        <v>273.4540427542534</v>
+        <v>1064.834630133134</v>
       </c>
       <c r="R2">
-        <v>2461.086384788281</v>
+        <v>9583.511671198206</v>
       </c>
       <c r="S2">
-        <v>0.00871499700699788</v>
+        <v>0.02566345589627382</v>
       </c>
       <c r="T2">
-        <v>0.00871499700699788</v>
+        <v>0.02566345589627382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.46517066666667</v>
+        <v>48.22964200000001</v>
       </c>
       <c r="H3">
-        <v>76.39551200000001</v>
+        <v>144.688926</v>
       </c>
       <c r="I3">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="J3">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.417137</v>
       </c>
       <c r="O3">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="P3">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="Q3">
-        <v>665.6352589654605</v>
+        <v>1260.676814724985</v>
       </c>
       <c r="R3">
-        <v>5990.717330689145</v>
+        <v>11346.09133252486</v>
       </c>
       <c r="S3">
-        <v>0.02121383626735947</v>
+        <v>0.03038342566873932</v>
       </c>
       <c r="T3">
-        <v>0.02121383626735947</v>
+        <v>0.03038342566873932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.46517066666667</v>
+        <v>48.22964200000001</v>
       </c>
       <c r="H4">
-        <v>76.39551200000001</v>
+        <v>144.688926</v>
       </c>
       <c r="I4">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="J4">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.19678233333333</v>
+        <v>21.44906733333333</v>
       </c>
       <c r="N4">
-        <v>54.590347</v>
+        <v>64.347202</v>
       </c>
       <c r="O4">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="P4">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="Q4">
-        <v>463.3841677025183</v>
+        <v>1034.480838720561</v>
       </c>
       <c r="R4">
-        <v>4170.457509322665</v>
+        <v>9310.327548485053</v>
       </c>
       <c r="S4">
-        <v>0.01476808166353151</v>
+        <v>0.02493190269058604</v>
       </c>
       <c r="T4">
-        <v>0.01476808166353151</v>
+        <v>0.02493190269058604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.46517066666667</v>
+        <v>48.22964200000001</v>
       </c>
       <c r="H5">
-        <v>76.39551200000001</v>
+        <v>144.688926</v>
       </c>
       <c r="I5">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="J5">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.34221666666667</v>
+        <v>10.39688033333333</v>
       </c>
       <c r="N5">
-        <v>46.02665</v>
+        <v>31.190641</v>
       </c>
       <c r="O5">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253343</v>
       </c>
       <c r="P5">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253342</v>
       </c>
       <c r="Q5">
-        <v>390.6921658216445</v>
+        <v>501.4378163935074</v>
       </c>
       <c r="R5">
-        <v>3516.229492394801</v>
+        <v>4512.940347541567</v>
       </c>
       <c r="S5">
-        <v>0.01245138313370279</v>
+        <v>0.01208509464434838</v>
       </c>
       <c r="T5">
-        <v>0.01245138313370279</v>
+        <v>0.01208509464434838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.46517066666667</v>
+        <v>48.22964200000001</v>
       </c>
       <c r="H6">
-        <v>76.39551200000001</v>
+        <v>144.688926</v>
       </c>
       <c r="I6">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="J6">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.34389066666667</v>
+        <v>28.20639166666666</v>
       </c>
       <c r="N6">
-        <v>76.031672</v>
+        <v>84.61917499999998</v>
       </c>
       <c r="O6">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="P6">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="Q6">
-        <v>645.3865011840072</v>
+        <v>1360.384172195117</v>
       </c>
       <c r="R6">
-        <v>5808.478510656065</v>
+        <v>12243.45754975605</v>
       </c>
       <c r="S6">
-        <v>0.0205685071228956</v>
+        <v>0.03278646112472258</v>
       </c>
       <c r="T6">
-        <v>0.02056850712289559</v>
+        <v>0.03278646112472257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.46517066666667</v>
+        <v>48.22964200000001</v>
       </c>
       <c r="H7">
-        <v>76.39551200000001</v>
+        <v>144.688926</v>
       </c>
       <c r="I7">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="J7">
-        <v>0.09366467756935824</v>
+        <v>0.152996643755948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.65048466666667</v>
+        <v>23.35413</v>
       </c>
       <c r="N7">
-        <v>58.951454</v>
+        <v>70.06238999999999</v>
       </c>
       <c r="O7">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="P7">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="Q7">
-        <v>500.4029457193832</v>
+        <v>1126.36132912146</v>
       </c>
       <c r="R7">
-        <v>4503.626511474448</v>
+        <v>10137.25196209314</v>
       </c>
       <c r="S7">
-        <v>0.01594787237487099</v>
+        <v>0.02714630373127783</v>
       </c>
       <c r="T7">
-        <v>0.01594787237487099</v>
+        <v>0.02714630373127783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>145.233578</v>
       </c>
       <c r="I8">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678017</v>
       </c>
       <c r="J8">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.738355</v>
+        <v>22.078427</v>
       </c>
       <c r="N8">
-        <v>32.215065</v>
+        <v>66.235281</v>
       </c>
       <c r="O8">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="P8">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="Q8">
-        <v>519.8565728280633</v>
+        <v>1068.842983273935</v>
       </c>
       <c r="R8">
-        <v>4678.709155452571</v>
+        <v>9619.586849465419</v>
       </c>
       <c r="S8">
-        <v>0.01656786065633795</v>
+        <v>0.0257600607503372</v>
       </c>
       <c r="T8">
-        <v>0.01656786065633795</v>
+        <v>0.0257600607503372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>145.233578</v>
       </c>
       <c r="I9">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678017</v>
       </c>
       <c r="J9">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>78.417137</v>
       </c>
       <c r="O9">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="P9">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="Q9">
         <v>1265.422375891799</v>
@@ -1013,10 +1013,10 @@
         <v>11388.80138302619</v>
       </c>
       <c r="S9">
-        <v>0.04032908823511492</v>
+        <v>0.0304977978879189</v>
       </c>
       <c r="T9">
-        <v>0.04032908823511492</v>
+        <v>0.0304977978879189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>145.233578</v>
       </c>
       <c r="I10">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678017</v>
       </c>
       <c r="J10">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678016</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.19678233333333</v>
+        <v>21.44906733333333</v>
       </c>
       <c r="N10">
-        <v>54.590347</v>
+        <v>64.347202</v>
       </c>
       <c r="O10">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="P10">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="Q10">
-        <v>880.9279354523964</v>
+        <v>1038.374931194306</v>
       </c>
       <c r="R10">
-        <v>7928.351419071568</v>
+        <v>9345.374380748757</v>
       </c>
       <c r="S10">
-        <v>0.02807522698703654</v>
+        <v>0.02502575376156734</v>
       </c>
       <c r="T10">
-        <v>0.02807522698703653</v>
+        <v>0.02502575376156733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>145.233578</v>
       </c>
       <c r="I11">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678017</v>
       </c>
       <c r="J11">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.34221666666667</v>
+        <v>10.39688033333333</v>
       </c>
       <c r="N11">
-        <v>46.02665</v>
+        <v>31.190641</v>
       </c>
       <c r="O11">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253343</v>
       </c>
       <c r="P11">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253342</v>
       </c>
       <c r="Q11">
-        <v>742.7350069837446</v>
+        <v>503.3253769492777</v>
       </c>
       <c r="R11">
-        <v>6684.615062853702</v>
+        <v>4529.928392543498</v>
       </c>
       <c r="S11">
-        <v>0.02367100993519761</v>
+        <v>0.01213058652233933</v>
       </c>
       <c r="T11">
-        <v>0.02367100993519761</v>
+        <v>0.01213058652233933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>145.233578</v>
       </c>
       <c r="I12">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678017</v>
       </c>
       <c r="J12">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678016</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.34389066666667</v>
+        <v>28.20639166666666</v>
       </c>
       <c r="N12">
-        <v>76.031672</v>
+        <v>84.61917499999998</v>
       </c>
       <c r="O12">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="P12">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="Q12">
-        <v>1226.927973986935</v>
+        <v>1365.505061406461</v>
       </c>
       <c r="R12">
-        <v>11042.35176588242</v>
+        <v>12289.54555265815</v>
       </c>
       <c r="S12">
-        <v>0.03910226930053971</v>
+        <v>0.03290987908156402</v>
       </c>
       <c r="T12">
-        <v>0.03910226930053971</v>
+        <v>0.03290987908156402</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>145.233578</v>
       </c>
       <c r="I13">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678017</v>
       </c>
       <c r="J13">
-        <v>0.178063552419339</v>
+        <v>0.1535725684678016</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.65048466666667</v>
+        <v>23.35413</v>
       </c>
       <c r="N13">
-        <v>58.951454</v>
+        <v>70.06238999999999</v>
       </c>
       <c r="O13">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="P13">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="Q13">
-        <v>951.3033991913793</v>
+        <v>1130.60128699238</v>
       </c>
       <c r="R13">
-        <v>8561.730592722413</v>
+        <v>10175.41158293142</v>
       </c>
       <c r="S13">
-        <v>0.03031809730511225</v>
+        <v>0.02724849046407484</v>
       </c>
       <c r="T13">
-        <v>0.03031809730511225</v>
+        <v>0.02724849046407484</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>47.68842933333334</v>
+        <v>61.722692</v>
       </c>
       <c r="H14">
-        <v>143.065288</v>
+        <v>185.168076</v>
       </c>
       <c r="I14">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="J14">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.738355</v>
+        <v>22.078427</v>
       </c>
       <c r="N14">
-        <v>32.215065</v>
+        <v>66.235281</v>
       </c>
       <c r="O14">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="P14">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="Q14">
-        <v>512.0952835737468</v>
+        <v>1362.739949565484</v>
       </c>
       <c r="R14">
-        <v>4608.85755216372</v>
+        <v>12264.65954608936</v>
       </c>
       <c r="S14">
-        <v>0.0163205078948262</v>
+        <v>0.03284323744184733</v>
       </c>
       <c r="T14">
-        <v>0.0163205078948262</v>
+        <v>0.03284323744184733</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>47.68842933333334</v>
+        <v>61.722692</v>
       </c>
       <c r="H15">
-        <v>143.065288</v>
+        <v>185.168076</v>
       </c>
       <c r="I15">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="J15">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.417137</v>
       </c>
       <c r="O15">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="P15">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="Q15">
-        <v>1246.530032115606</v>
+        <v>1613.372264857601</v>
       </c>
       <c r="R15">
-        <v>11218.77028904046</v>
+        <v>14520.35038371841</v>
       </c>
       <c r="S15">
-        <v>0.03972698808765922</v>
+        <v>0.03888369779847196</v>
       </c>
       <c r="T15">
-        <v>0.03972698808765922</v>
+        <v>0.03888369779847196</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>47.68842933333334</v>
+        <v>61.722692</v>
       </c>
       <c r="H16">
-        <v>143.065288</v>
+        <v>185.168076</v>
       </c>
       <c r="I16">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="J16">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.19678233333333</v>
+        <v>21.44906733333333</v>
       </c>
       <c r="N16">
-        <v>54.590347</v>
+        <v>64.347202</v>
       </c>
       <c r="O16">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="P16">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="Q16">
-        <v>867.7759683972153</v>
+        <v>1323.894176702595</v>
       </c>
       <c r="R16">
-        <v>7809.983715574936</v>
+        <v>11915.04759032335</v>
       </c>
       <c r="S16">
-        <v>0.02765607299550077</v>
+        <v>0.03190701997632521</v>
       </c>
       <c r="T16">
-        <v>0.02765607299550076</v>
+        <v>0.03190701997632521</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>47.68842933333334</v>
+        <v>61.722692</v>
       </c>
       <c r="H17">
-        <v>143.065288</v>
+        <v>185.168076</v>
       </c>
       <c r="I17">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="J17">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.34221666666667</v>
+        <v>10.39688033333333</v>
       </c>
       <c r="N17">
-        <v>46.02665</v>
+        <v>31.190641</v>
       </c>
       <c r="O17">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253343</v>
       </c>
       <c r="P17">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253342</v>
       </c>
       <c r="Q17">
-        <v>731.6462153250224</v>
+        <v>641.7234425751907</v>
       </c>
       <c r="R17">
-        <v>6584.815937925201</v>
+        <v>5775.510983176716</v>
       </c>
       <c r="S17">
-        <v>0.02331760946927788</v>
+        <v>0.01546610224732675</v>
       </c>
       <c r="T17">
-        <v>0.02331760946927788</v>
+        <v>0.01546610224732675</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>47.68842933333334</v>
+        <v>61.722692</v>
       </c>
       <c r="H18">
-        <v>143.065288</v>
+        <v>185.168076</v>
       </c>
       <c r="I18">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="J18">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.34389066666667</v>
+        <v>28.20639166666666</v>
       </c>
       <c r="N18">
-        <v>76.031672</v>
+        <v>84.61917499999998</v>
       </c>
       <c r="O18">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="P18">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="Q18">
-        <v>1208.61033908906</v>
+        <v>1740.974425273033</v>
       </c>
       <c r="R18">
-        <v>10877.49305180154</v>
+        <v>15668.7698274573</v>
       </c>
       <c r="S18">
-        <v>0.03851848516005901</v>
+        <v>0.04195902266434458</v>
       </c>
       <c r="T18">
-        <v>0.038518485160059</v>
+        <v>0.04195902266434458</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>47.68842933333334</v>
+        <v>61.722692</v>
       </c>
       <c r="H19">
-        <v>143.065288</v>
+        <v>185.168076</v>
       </c>
       <c r="I19">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="J19">
-        <v>0.1754051215978155</v>
+        <v>0.1958000169186846</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.65048466666667</v>
+        <v>23.35413</v>
       </c>
       <c r="N19">
-        <v>58.951454</v>
+        <v>70.06238999999999</v>
       </c>
       <c r="O19">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="P19">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="Q19">
-        <v>937.1007493920837</v>
+        <v>1441.47977291796</v>
       </c>
       <c r="R19">
-        <v>8433.906744528753</v>
+        <v>12973.31795626164</v>
       </c>
       <c r="S19">
-        <v>0.02986545799049245</v>
+        <v>0.03474093679036872</v>
       </c>
       <c r="T19">
-        <v>0.02986545799049245</v>
+        <v>0.03474093679036872</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.30467566666667</v>
+        <v>32.97441733333333</v>
       </c>
       <c r="H20">
-        <v>108.914027</v>
+        <v>98.92325199999999</v>
       </c>
       <c r="I20">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="J20">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.738355</v>
+        <v>22.078427</v>
       </c>
       <c r="N20">
-        <v>32.215065</v>
+        <v>66.235281</v>
       </c>
       <c r="O20">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="P20">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="Q20">
-        <v>389.8524954685284</v>
+        <v>728.0232659615345</v>
       </c>
       <c r="R20">
-        <v>3508.672459216755</v>
+        <v>6552.209393653811</v>
       </c>
       <c r="S20">
-        <v>0.01242462278837906</v>
+        <v>0.01754600427967777</v>
       </c>
       <c r="T20">
-        <v>0.01242462278837906</v>
+        <v>0.01754600427967777</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.30467566666667</v>
+        <v>32.97441733333333</v>
       </c>
       <c r="H21">
-        <v>108.914027</v>
+        <v>98.92325199999999</v>
       </c>
       <c r="I21">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="J21">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.417137</v>
       </c>
       <c r="O21">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="P21">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="Q21">
-        <v>948.9695751645221</v>
+        <v>861.9198005077246</v>
       </c>
       <c r="R21">
-        <v>8540.726176480699</v>
+        <v>7757.278204569523</v>
       </c>
       <c r="S21">
-        <v>0.03024371819115197</v>
+        <v>0.02077302912630623</v>
       </c>
       <c r="T21">
-        <v>0.03024371819115197</v>
+        <v>0.02077302912630623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.30467566666667</v>
+        <v>32.97441733333333</v>
       </c>
       <c r="H22">
-        <v>108.914027</v>
+        <v>98.92325199999999</v>
       </c>
       <c r="I22">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="J22">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.19678233333333</v>
+        <v>21.44906733333333</v>
       </c>
       <c r="N22">
-        <v>54.590347</v>
+        <v>64.347202</v>
       </c>
       <c r="O22">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="P22">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="Q22">
-        <v>660.6282807885966</v>
+        <v>707.2704976601003</v>
       </c>
       <c r="R22">
-        <v>5945.654527097369</v>
+        <v>6365.434478940903</v>
       </c>
       <c r="S22">
-        <v>0.02105426356773518</v>
+        <v>0.01704584421823907</v>
       </c>
       <c r="T22">
-        <v>0.02105426356773518</v>
+        <v>0.01704584421823907</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.30467566666667</v>
+        <v>32.97441733333333</v>
       </c>
       <c r="H23">
-        <v>108.914027</v>
+        <v>98.92325199999999</v>
       </c>
       <c r="I23">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="J23">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.34221666666667</v>
+        <v>10.39688033333333</v>
       </c>
       <c r="N23">
-        <v>46.02665</v>
+        <v>31.190641</v>
       </c>
       <c r="O23">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253343</v>
       </c>
       <c r="P23">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253342</v>
       </c>
       <c r="Q23">
-        <v>556.9942000910612</v>
+        <v>342.8310710760591</v>
       </c>
       <c r="R23">
-        <v>5012.947800819551</v>
+        <v>3085.479639684532</v>
       </c>
       <c r="S23">
-        <v>0.0177514391003944</v>
+        <v>0.008262531874393242</v>
       </c>
       <c r="T23">
-        <v>0.0177514391003944</v>
+        <v>0.008262531874393238</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.30467566666667</v>
+        <v>32.97441733333333</v>
       </c>
       <c r="H24">
-        <v>108.914027</v>
+        <v>98.92325199999999</v>
       </c>
       <c r="I24">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="J24">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.34389066666667</v>
+        <v>28.20639166666666</v>
       </c>
       <c r="N24">
-        <v>76.031672</v>
+        <v>84.61917499999998</v>
       </c>
       <c r="O24">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="P24">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="Q24">
-        <v>920.1017307847939</v>
+        <v>930.0893302841218</v>
       </c>
       <c r="R24">
-        <v>8280.915577063144</v>
+        <v>8370.803972557098</v>
       </c>
       <c r="S24">
-        <v>0.02932369823154982</v>
+        <v>0.0224159750555418</v>
       </c>
       <c r="T24">
-        <v>0.02932369823154982</v>
+        <v>0.0224159750555418</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.30467566666667</v>
+        <v>32.97441733333333</v>
       </c>
       <c r="H25">
-        <v>108.914027</v>
+        <v>98.92325199999999</v>
       </c>
       <c r="I25">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="J25">
-        <v>0.1335339858935087</v>
+        <v>0.1046032060907264</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.65048466666667</v>
+        <v>23.35413</v>
       </c>
       <c r="N25">
-        <v>58.951454</v>
+        <v>70.06238999999999</v>
       </c>
       <c r="O25">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="P25">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="Q25">
-        <v>713.4044725161398</v>
+        <v>770.0888290769198</v>
       </c>
       <c r="R25">
-        <v>6420.640252645258</v>
+        <v>6930.799461692279</v>
       </c>
       <c r="S25">
-        <v>0.02273624401429828</v>
+        <v>0.0185598215365683</v>
       </c>
       <c r="T25">
-        <v>0.02273624401429828</v>
+        <v>0.0185598215365683</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>60.28995899999999</v>
+        <v>63.97664133333333</v>
       </c>
       <c r="H26">
-        <v>180.869877</v>
+        <v>191.929924</v>
       </c>
       <c r="I26">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="J26">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.738355</v>
+        <v>22.078427</v>
       </c>
       <c r="N26">
-        <v>32.215065</v>
+        <v>66.235281</v>
       </c>
       <c r="O26">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="P26">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="Q26">
-        <v>647.4149826774449</v>
+        <v>1412.503605383183</v>
       </c>
       <c r="R26">
-        <v>5826.734844097004</v>
+        <v>12712.53244844864</v>
       </c>
       <c r="S26">
-        <v>0.02063315495170808</v>
+        <v>0.03404258553795047</v>
       </c>
       <c r="T26">
-        <v>0.02063315495170808</v>
+        <v>0.03404258553795046</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>60.28995899999999</v>
+        <v>63.97664133333333</v>
       </c>
       <c r="H27">
-        <v>180.869877</v>
+        <v>191.929924</v>
       </c>
       <c r="I27">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="J27">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>78.417137</v>
       </c>
       <c r="O27">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="P27">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="Q27">
-        <v>1575.921991542461</v>
+        <v>1672.288349411954</v>
       </c>
       <c r="R27">
-        <v>14183.29792388215</v>
+        <v>15050.59514470759</v>
       </c>
       <c r="S27">
-        <v>0.05022472990789623</v>
+        <v>0.04030362751784325</v>
       </c>
       <c r="T27">
-        <v>0.05022472990789623</v>
+        <v>0.04030362751784325</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>60.28995899999999</v>
+        <v>63.97664133333333</v>
       </c>
       <c r="H28">
-        <v>180.869877</v>
+        <v>191.929924</v>
       </c>
       <c r="I28">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="J28">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.19678233333333</v>
+        <v>21.44906733333333</v>
       </c>
       <c r="N28">
-        <v>54.590347</v>
+        <v>64.347202</v>
       </c>
       <c r="O28">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="P28">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="Q28">
-        <v>1097.083260808591</v>
+        <v>1372.239287719183</v>
       </c>
       <c r="R28">
-        <v>9873.749347277319</v>
+        <v>12350.15358947265</v>
       </c>
       <c r="S28">
-        <v>0.03496411037874711</v>
+        <v>0.03307217988873298</v>
       </c>
       <c r="T28">
-        <v>0.0349641103787471</v>
+        <v>0.03307217988873297</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>60.28995899999999</v>
+        <v>63.97664133333333</v>
       </c>
       <c r="H29">
-        <v>180.869877</v>
+        <v>191.929924</v>
       </c>
       <c r="I29">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="J29">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.34221666666667</v>
+        <v>10.39688033333333</v>
       </c>
       <c r="N29">
-        <v>46.02665</v>
+        <v>31.190641</v>
       </c>
       <c r="O29">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253343</v>
       </c>
       <c r="P29">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253342</v>
       </c>
       <c r="Q29">
-        <v>924.9816138024498</v>
+        <v>665.1574840712537</v>
       </c>
       <c r="R29">
-        <v>8324.834524222049</v>
+        <v>5986.417356641283</v>
       </c>
       <c r="S29">
-        <v>0.02947922040070491</v>
+        <v>0.01603088336299207</v>
       </c>
       <c r="T29">
-        <v>0.02947922040070491</v>
+        <v>0.01603088336299207</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>60.28995899999999</v>
+        <v>63.97664133333333</v>
       </c>
       <c r="H30">
-        <v>180.869877</v>
+        <v>191.929924</v>
       </c>
       <c r="I30">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="J30">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.34389066666667</v>
+        <v>28.20639166666666</v>
       </c>
       <c r="N30">
-        <v>76.031672</v>
+        <v>84.61917499999998</v>
       </c>
       <c r="O30">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="P30">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="Q30">
-        <v>1527.982129193816</v>
+        <v>1804.550202965855</v>
       </c>
       <c r="R30">
-        <v>13751.83916274434</v>
+        <v>16240.9518266927</v>
       </c>
       <c r="S30">
-        <v>0.04869688357336684</v>
+        <v>0.04349125510750531</v>
       </c>
       <c r="T30">
-        <v>0.04869688357336683</v>
+        <v>0.0434912551075053</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>60.28995899999999</v>
+        <v>63.97664133333333</v>
       </c>
       <c r="H31">
-        <v>180.869877</v>
+        <v>191.929924</v>
       </c>
       <c r="I31">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="J31">
-        <v>0.2217554181875825</v>
+        <v>0.2029501152585386</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.65048466666667</v>
+        <v>23.35413</v>
       </c>
       <c r="N31">
-        <v>58.951454</v>
+        <v>70.06238999999999</v>
       </c>
       <c r="O31">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="P31">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="Q31">
-        <v>1184.726914883462</v>
+        <v>1494.11879866204</v>
       </c>
       <c r="R31">
-        <v>10662.54223395116</v>
+        <v>13447.06918795836</v>
       </c>
       <c r="S31">
-        <v>0.03775731897515933</v>
+        <v>0.03600958384351453</v>
       </c>
       <c r="T31">
-        <v>0.03775731897515933</v>
+        <v>0.03600958384351453</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>53.71649566666667</v>
+        <v>59.918748</v>
       </c>
       <c r="H32">
-        <v>161.149487</v>
+        <v>179.756244</v>
       </c>
       <c r="I32">
-        <v>0.197577244332396</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="J32">
-        <v>0.1975772443323959</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.738355</v>
+        <v>22.078427</v>
       </c>
       <c r="N32">
-        <v>32.215065</v>
+        <v>66.235281</v>
       </c>
       <c r="O32">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="P32">
-        <v>0.09304464856076046</v>
+        <v>0.167738685413327</v>
       </c>
       <c r="Q32">
-        <v>576.8267998246283</v>
+        <v>1322.911703649396</v>
       </c>
       <c r="R32">
-        <v>5191.441198421655</v>
+        <v>11906.20533284457</v>
       </c>
       <c r="S32">
-        <v>0.01838350526251128</v>
+        <v>0.0318833415072404</v>
       </c>
       <c r="T32">
-        <v>0.01838350526251128</v>
+        <v>0.0318833415072404</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>53.71649566666667</v>
+        <v>59.918748</v>
       </c>
       <c r="H33">
-        <v>161.149487</v>
+        <v>179.756244</v>
       </c>
       <c r="I33">
-        <v>0.197577244332396</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="J33">
-        <v>0.1975772443323959</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>78.417137</v>
       </c>
       <c r="O33">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="P33">
-        <v>0.2264870473893504</v>
+        <v>0.1985888377865682</v>
       </c>
       <c r="Q33">
-        <v>1404.097933284302</v>
+        <v>1566.218890261492</v>
       </c>
       <c r="R33">
-        <v>12636.88139955872</v>
+        <v>14095.97001235343</v>
       </c>
       <c r="S33">
-        <v>0.04474868670016863</v>
+        <v>0.03774725978728855</v>
       </c>
       <c r="T33">
-        <v>0.04474868670016863</v>
+        <v>0.03774725978728855</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>53.71649566666667</v>
+        <v>59.918748</v>
       </c>
       <c r="H34">
-        <v>161.149487</v>
+        <v>179.756244</v>
       </c>
       <c r="I34">
-        <v>0.197577244332396</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="J34">
-        <v>0.1975772443323959</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>18.19678233333333</v>
+        <v>21.44906733333333</v>
       </c>
       <c r="N34">
-        <v>54.590347</v>
+        <v>64.347202</v>
       </c>
       <c r="O34">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="P34">
-        <v>0.1576697005399481</v>
+        <v>0.1629571870240243</v>
       </c>
       <c r="Q34">
-        <v>977.4673793557766</v>
+        <v>1285.201260381032</v>
       </c>
       <c r="R34">
-        <v>8797.206414201988</v>
+        <v>11566.81134342929</v>
       </c>
       <c r="S34">
-        <v>0.03115194494739704</v>
+        <v>0.0309744864885737</v>
       </c>
       <c r="T34">
-        <v>0.03115194494739703</v>
+        <v>0.0309744864885737</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>53.71649566666667</v>
+        <v>59.918748</v>
       </c>
       <c r="H35">
-        <v>161.149487</v>
+        <v>179.756244</v>
       </c>
       <c r="I35">
-        <v>0.197577244332396</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="J35">
-        <v>0.1975772443323959</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.34221666666667</v>
+        <v>10.39688033333333</v>
       </c>
       <c r="N35">
-        <v>46.02665</v>
+        <v>31.190641</v>
       </c>
       <c r="O35">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253343</v>
       </c>
       <c r="P35">
-        <v>0.132935739030144</v>
+        <v>0.07898927942253342</v>
       </c>
       <c r="Q35">
-        <v>824.1301150920611</v>
+        <v>622.968052679156</v>
       </c>
       <c r="R35">
-        <v>7417.17103582855</v>
+        <v>5606.712474112404</v>
       </c>
       <c r="S35">
-        <v>0.02626507699086638</v>
+        <v>0.01501408077113366</v>
       </c>
       <c r="T35">
-        <v>0.02626507699086638</v>
+        <v>0.01501408077113365</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>53.71649566666667</v>
+        <v>59.918748</v>
       </c>
       <c r="H36">
-        <v>161.149487</v>
+        <v>179.756244</v>
       </c>
       <c r="I36">
-        <v>0.197577244332396</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="J36">
-        <v>0.1975772443323959</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.34389066666667</v>
+        <v>28.20639166666666</v>
       </c>
       <c r="N36">
-        <v>76.031672</v>
+        <v>84.61917499999998</v>
       </c>
       <c r="O36">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="P36">
-        <v>0.2195972660842687</v>
+        <v>0.2142952964185396</v>
       </c>
       <c r="Q36">
-        <v>1361.384993172474</v>
+        <v>1690.0916742643</v>
       </c>
       <c r="R36">
-        <v>12252.46493855226</v>
+        <v>15210.8250683787</v>
       </c>
       <c r="S36">
-        <v>0.04338742269585772</v>
+        <v>0.04073270338486129</v>
       </c>
       <c r="T36">
-        <v>0.04338742269585771</v>
+        <v>0.04073270338486129</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>53.71649566666667</v>
+        <v>59.918748</v>
       </c>
       <c r="H37">
-        <v>161.149487</v>
+        <v>179.756244</v>
       </c>
       <c r="I37">
-        <v>0.197577244332396</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="J37">
-        <v>0.1975772443323959</v>
+        <v>0.1900774495083007</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.65048466666667</v>
+        <v>23.35413</v>
       </c>
       <c r="N37">
-        <v>58.951454</v>
+        <v>70.06238999999999</v>
       </c>
       <c r="O37">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="P37">
-        <v>0.1702655983955282</v>
+        <v>0.1774307139350073</v>
       </c>
       <c r="Q37">
-        <v>1055.5551744449</v>
+        <v>1399.35023022924</v>
       </c>
       <c r="R37">
-        <v>9499.996570004098</v>
+        <v>12594.15207206316</v>
       </c>
       <c r="S37">
-        <v>0.03364060773559488</v>
+        <v>0.03372557756920311</v>
       </c>
       <c r="T37">
-        <v>0.03364060773559487</v>
+        <v>0.03372557756920311</v>
       </c>
     </row>
   </sheetData>
